--- a/bentre.xlsx
+++ b/bentre.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>SMS</t>
   </si>
@@ -38,22 +38,22 @@
     <t>MISBHXH</t>
   </si>
   <si>
-    <t>BHXH tỉnh Bình Thuận</t>
-  </si>
-  <si>
-    <t>10.60.240.6, 23456</t>
-  </si>
-  <si>
-    <t>06000</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>40</t>
+    <t>BHXH tỉnh Vũng Tàu</t>
+  </si>
+  <si>
+    <t>10.77.240.7,1433</t>
+  </si>
+  <si>
+    <t>07700</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
@@ -148,71 +148,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -534,7 +476,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,38 +487,40 @@
     <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
@@ -687,9 +631,9 @@
       <c r="K10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:I1">
+  <conditionalFormatting sqref="H1:J1">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(G1))&gt;0</formula>
+      <formula>LEN(TRIM(H1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bentre.xlsx
+++ b/bentre.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\user\trong\TecaScripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tst\git\TecaScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>SMS</t>
   </si>
@@ -32,28 +32,43 @@
     <t>SMS sổ thẻ</t>
   </si>
   <si>
-    <t>MISBHXH_SOTHE</t>
-  </si>
-  <si>
-    <t>MISBHXH</t>
-  </si>
-  <si>
-    <t>BHXH tỉnh Vũng Tàu</t>
-  </si>
-  <si>
-    <t>10.77.240.7,1433</t>
-  </si>
-  <si>
-    <t>07700</t>
-  </si>
-  <si>
-    <t>660</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>50</t>
+    <t>Văn phòng nghệ an</t>
+  </si>
+  <si>
+    <t>misbhxh</t>
+  </si>
+  <si>
+    <t>misbhxhsothe</t>
+  </si>
+  <si>
+    <t>misbhxh01</t>
+  </si>
+  <si>
+    <t>misbhxhsothe01</t>
+  </si>
+  <si>
+    <t>tp vinh</t>
+  </si>
+  <si>
+    <t>10.40.254.77,54448</t>
+  </si>
+  <si>
+    <t>04000</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>04001</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
 </sst>
 </file>
@@ -75,17 +90,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="13.2"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -98,17 +115,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
-        <bgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -117,16 +134,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -142,62 +174,19 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -473,169 +462,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
     <col min="8" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="11" max="11" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:J1">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(H1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
